--- a/output/StructureDefinition-cls-obo-cmo-systolic-blood-pressure.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-systolic-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T17:18:53+01:00</t>
+    <t>2023-03-06T21:43:48+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-cmo-systolic-blood-pressure.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-systolic-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T21:43:48+01:00</t>
+    <t>2023-03-07T20:03:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4432,7 +4432,7 @@
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -4792,7 +4792,7 @@
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -5034,7 +5034,7 @@
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -5884,7 +5884,7 @@
         <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
@@ -6244,7 +6244,7 @@
         <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>82</v>
@@ -6486,7 +6486,7 @@
         <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -7336,7 +7336,7 @@
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
@@ -7696,7 +7696,7 @@
         <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
@@ -7938,7 +7938,7 @@
         <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
@@ -8788,7 +8788,7 @@
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -9148,7 +9148,7 @@
         <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9390,7 +9390,7 @@
         <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
@@ -10240,7 +10240,7 @@
         <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>82</v>
@@ -10600,7 +10600,7 @@
         <v>92</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>82</v>
@@ -10842,7 +10842,7 @@
         <v>92</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cls-obo-cmo-systolic-blood-pressure.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-systolic-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T20:03:22+01:00</t>
+    <t>2023-03-08T09:48:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-cmo-systolic-blood-pressure.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-systolic-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T09:48:37+01:00</t>
+    <t>2023-03-09T13:29:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-cmo-systolic-blood-pressure.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-systolic-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T13:29:22+01:00</t>
+    <t>2023-03-10T10:38:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4908,7 +4908,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6360,7 +6360,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -7812,7 +7812,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -9264,7 +9264,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -10716,7 +10716,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cls-obo-cmo-systolic-blood-pressure.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-systolic-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:38:26+01:00</t>
+    <t>2023-03-13T12:04:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4012,7 +4012,7 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>207</v>

--- a/output/StructureDefinition-cls-obo-cmo-systolic-blood-pressure.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-systolic-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T12:04:54+01:00</t>
+    <t>2023-03-14T13:58:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-cmo-systolic-blood-pressure.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-systolic-blood-pressure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T13:58:26+01:00</t>
+    <t>2023-03-14T20:28:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-cmo-systolic-blood-pressure.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-systolic-blood-pressure.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-obo-cmo-systolic-blood-pressure</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-cmo-systolic-blood-pressure</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T20:28:45+01:00</t>
+    <t>2023-03-15T20:18:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-obo-cmo-blood-pressure-measurement</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-cmo-blood-pressure-measurement</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/output/StructureDefinition-cls-obo-cmo-systolic-blood-pressure.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-systolic-blood-pressure.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-cmo-systolic-blood-pressure</t>
+    <t>http://fhir.org/de/StructureDefinition/cls-obo-cmo-systolic-blood-pressure</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:18:50+01:00</t>
+    <t>2023-03-16T15:14:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - [Some] Work Group</t>
+    <t>HL7 International - CDE Katalog Arbeitsgruppe</t>
   </si>
   <si>
     <t>Contact</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-cmo-blood-pressure-measurement</t>
+    <t>http://fhir.org/de/StructureDefinition/cls-obo-cmo-blood-pressure-measurement</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/output/StructureDefinition-cls-obo-cmo-systolic-blood-pressure.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-systolic-blood-pressure.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cls-obo-cmo-systolic-blood-pressure</t>
+    <t>http://hl7.org/de/StructureDefinition/cls-obo-cmo-systolic-blood-pressure</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:14:40+01:00</t>
+    <t>2023-03-16T17:46:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cls-obo-cmo-blood-pressure-measurement</t>
+    <t>http://hl7.org/de/StructureDefinition/cls-obo-cmo-blood-pressure-measurement</t>
   </si>
   <si>
     <t>Abstract</t>
